--- a/apiAuto/src/main/resources/cases.xlsx
+++ b/apiAuto/src/main/resources/cases.xlsx
@@ -1191,7 +1191,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
